--- a/code/src/main/resources/templet/radiations.xlsx
+++ b/code/src/main/resources/templet/radiations.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\SmartSystem\code\src\main\resources\templet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\work\SmartSystem\code\src\main\resources\templet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EBD8D0-3B65-4396-8CCF-2844BEDCED6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEE2348-45F8-4974-AF35-3B105286ABBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B204EC48-8ACD-43FF-8884-2C5619D64EB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B204EC48-8ACD-43FF-8884-2C5619D64EB5}"/>
   </bookViews>
   <sheets>
-    <sheet name="人员列表" sheetId="1" r:id="rId1"/>
+    <sheet name="辐射强度数据" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,6 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>shen:</t>
         </r>
@@ -46,9 +47,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="C</t>
+jx:area(lastCell="D</t>
         </r>
         <r>
           <rPr>
@@ -58,19 +60,20 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>5</t>
+          <t>7</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{0F39D3D2-5494-4C62-B0E7-398A99D34A3D}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{0F39D3D2-5494-4C62-B0E7-398A99D34A3D}">
       <text>
         <r>
           <rPr>
@@ -92,7 +95,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="datas" var="cell" lastCell="B4")</t>
+jx:each(items="datas" var="cell" lastCell="C6")</t>
         </r>
       </text>
     </comment>
@@ -101,18 +104,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>检测时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${cell.uploadTime}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${cell.radValue}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐射强度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>■ 辐射</t>
     </r>
     <r>
@@ -120,7 +130,7 @@
         <b/>
         <sz val="18"/>
         <color theme="0"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -132,7 +142,7 @@
         <b/>
         <sz val="18"/>
         <color theme="0"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -142,19 +152,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>检测时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${cell.uploadTime}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${cell.radValue}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>辐射强度</t>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属组织</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${cell.radNo}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${unitPath}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -162,11 +172,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -175,14 +185,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -191,12 +201,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -216,7 +228,7 @@
       <b/>
       <sz val="18"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -241,7 +253,7 @@
       <b/>
       <sz val="18"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -296,7 +308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,9 +324,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,7 +345,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -626,41 +641,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1F46ED-5FDF-4FA7-B1E3-CB5C4B236642}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="36.25" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/code/src/main/resources/templet/radiations.xlsx
+++ b/code/src/main/resources/templet/radiations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\work\SmartSystem\code\src\main\resources\templet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\SmartSystem\code\src\main\resources\templet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEE2348-45F8-4974-AF35-3B105286ABBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9006C7AA-05C7-41A1-B524-51DA8F1AC8C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B204EC48-8ACD-43FF-8884-2C5619D64EB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B204EC48-8ACD-43FF-8884-2C5619D64EB5}"/>
   </bookViews>
   <sheets>
     <sheet name="辐射强度数据" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>shen:</t>
         </r>
@@ -47,7 +46,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 jx:area(lastCell="D</t>
@@ -67,7 +65,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>")</t>
         </r>
@@ -106,19 +103,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>检测时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${cell.uploadTime}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>${cell.radValue}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>辐射强度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -130,7 +119,7 @@
         <b/>
         <sz val="18"/>
         <color theme="0"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -142,7 +131,7 @@
         <b/>
         <sz val="18"/>
         <color theme="0"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -167,16 +156,47 @@
     <t>${unitPath}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>辐照时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>辐射值（单位：uW/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -185,14 +205,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -201,14 +221,12 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -228,7 +246,7 @@
       <b/>
       <sz val="18"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -253,10 +271,25 @@
       <b/>
       <sz val="18"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -308,7 +341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,9 +360,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -345,7 +381,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -644,52 +680,52 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="36.25" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
